--- a/biology/Médecine/Karl_Aberle/Karl_Aberle.xlsx
+++ b/biology/Médecine/Karl_Aberle/Karl_Aberle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Aberle est un médecin autrichien né le 6 février 1818 à Salzbourg et mort le 16 mars 1892 à Vienne.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karl Aberle naît à Salzbourg le 6 février 1818[1].
-Il étudie la médecine à Vienne aux côtés de Carl von Rokitansky, Joseph Škoda et Ferdinand von Hebra. En 1841, il devient docteur en médecine et retourne dans sa ville natale[1].
-En 1852, il est professeur d'anatomie à l'école de chirurgie de Salzbourg. Il insiste pour la création du Musée Carolino-Augusteum et de la Gesellschaft für Salzburger Landeskunde (de)[1].
-En 1872, il est le médecin personnel de l'impératrice Karolina Augusta[1].
-Il meurt à Vienne le 16 mars 1892[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karl Aberle naît à Salzbourg le 6 février 1818.
+Il étudie la médecine à Vienne aux côtés de Carl von Rokitansky, Joseph Škoda et Ferdinand von Hebra. En 1841, il devient docteur en médecine et retourne dans sa ville natale.
+En 1852, il est professeur d'anatomie à l'école de chirurgie de Salzbourg. Il insiste pour la création du Musée Carolino-Augusteum et de la Gesellschaft für Salzburger Landeskunde (de).
+En 1872, il est le médecin personnel de l'impératrice Karolina Augusta.
+Il meurt à Vienne le 16 mars 1892.
 </t>
         </is>
       </c>
